--- a/outputs/ML_Results/carown_LR/Leipzig.xlsx
+++ b/outputs/ML_Results/carown_LR/Leipzig.xlsx
@@ -7,14 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ25" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ8" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ6" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ13" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ8" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ6" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ16" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ12" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-16.83150127625437</v>
+        <v>-4.787361067799912</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9985270519656548</v>
+        <v>0.8037835476485639</v>
       </c>
     </row>
     <row r="3">
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.84050479599037</v>
+        <v>5.275365075124087</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9984387527515951</v>
+        <v>0.7834749200395874</v>
       </c>
     </row>
     <row r="4">
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.47771523623248</v>
+        <v>5.09455417591495</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9984705009293567</v>
+        <v>0.7907472062429075</v>
       </c>
     </row>
     <row r="5">
@@ -504,257 +504,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.43079213147485</v>
+        <v>3.910236470509477</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9985621185175466</v>
+        <v>0.83860818067266</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.62646743055182</v>
+        <v>4.390850480624568</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9985449947192322</v>
+        <v>0.8190944992223765</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.78600790169855</v>
+        <v>4.330338348666514</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9985310331259711</v>
+        <v>0.8215548760256791</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.28655589725654</v>
+        <v>0.1713864275858204</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9983997182604817</v>
+        <v>0.3157778851768155</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1831740865181289</v>
+        <v>0.0002951708217967722</v>
       </c>
       <c r="C9" t="n">
-        <v>0.272424687248266</v>
+        <v>2.962437543550097e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0003027870857403973</v>
+        <v>-0.001096438988165122</v>
       </c>
       <c r="C10" t="n">
-        <v>3.466545736795546e-05</v>
+        <v>0.8610689102364352</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.004876550761250742</v>
+        <v>-0.04127043514184754</v>
       </c>
       <c r="C11" t="n">
-        <v>0.441580794997787</v>
+        <v>0.795880950564702</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.05055400406343231</v>
+        <v>1.146490795214186</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7545901835306954</v>
+        <v>1.879198262273397e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.118123411113152</v>
+        <v>1.249119032799762</v>
       </c>
       <c r="C13" t="n">
-        <v>4.519951070993701e-05</v>
+        <v>0.0003504652108744395</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.270769651173946</v>
+        <v>4.318859516727997e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0003785314601345245</v>
+        <v>0.5463095122361045</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.974855429216018e-05</v>
+        <v>-2.446345895132021e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7891755816881371</v>
+        <v>0.558170295991242</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4.227561485998794e-08</v>
+        <v>0.02979579740924603</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3190064233928044</v>
+        <v>0.6838862735303906</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01456080824638842</v>
+        <v>0.02457298200299209</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8450203621208416</v>
+        <v>0.7741763241893412</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01806400249642548</v>
+        <v>-0.9175716935047663</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8323488713855094</v>
+        <v>0.2389244129702328</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.423529202769763</v>
+        <v>-0.02270906021492141</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0641188749194006</v>
+        <v>0.1554210025058912</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01725062509486016</v>
+        <v>-0.0005266455059756279</v>
       </c>
       <c r="C20" t="n">
-        <v>0.27598037346278</v>
+        <v>0.9480874749007479</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.0005044035651070132</v>
+        <v>0.3435494030095811</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9503967567168869</v>
+        <v>0.8467048914991282</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7379543479613799</v>
+        <v>0.5906923398154202</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6772023231586732</v>
+        <v>0.6495497411508947</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.481076751637402</v>
+        <v>-0.7681008198857032</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2571953507208101</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-1.254439045557884</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.1440523998810009</v>
+        <v>0.3824533998788699</v>
       </c>
     </row>
   </sheetData>
@@ -768,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,10 +787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-17.1226681761442</v>
+        <v>-4.025602293522111</v>
       </c>
       <c r="C2" t="n">
-        <v>0.998501613720252</v>
+        <v>0.8684471972050387</v>
       </c>
     </row>
     <row r="3">
@@ -813,10 +800,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.14927640789467</v>
+        <v>6.253326869789079</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9984117764277326</v>
+        <v>0.7964930142893956</v>
       </c>
     </row>
     <row r="4">
@@ -826,10 +813,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.69698183348955</v>
+        <v>5.970360746000503</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9984513561878142</v>
+        <v>0.8055276938111025</v>
       </c>
     </row>
     <row r="5">
@@ -839,257 +826,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.68947645443299</v>
+        <v>4.70742625745494</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9985395217960451</v>
+        <v>0.8460743133836578</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.8393439578162</v>
+        <v>4.962516637777968</v>
       </c>
       <c r="C6" t="n">
-        <v>0.998526407066646</v>
+        <v>0.8378457063261782</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.06677218558197</v>
+        <v>5.241438941610213</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9985065050889292</v>
+        <v>0.8288746949371186</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.46410504633764</v>
+        <v>0.107717161163108</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9983842261570222</v>
+        <v>0.5098591100962435</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2312905860587234</v>
+        <v>0.000224922295409432</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1615333862185506</v>
+        <v>0.001184562114444498</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.000233305761360664</v>
+        <v>-0.003694757722815096</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0009740476042728629</v>
+        <v>0.5548384765648848</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.004384659534023241</v>
+        <v>0.02328128282494946</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4855408007610142</v>
+        <v>0.8848379896192209</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1260883361543656</v>
+        <v>1.059477215434472</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4336422130965573</v>
+        <v>6.458524775608845e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.038011817021736</v>
+        <v>1.069608137087771</v>
       </c>
       <c r="C13" t="n">
-        <v>7.307118188304074e-05</v>
+        <v>0.002042415593807855</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.064028534065687</v>
+        <v>1.873442424612587e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00199300730113649</v>
+        <v>0.7901922023791719</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.937124733501043e-05</v>
+        <v>-5.232402423629497e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6873894159161087</v>
+        <v>0.2131745767318419</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.71008469797446e-08</v>
+        <v>0.02989355201200549</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5279422513032996</v>
+        <v>0.680501654830965</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.005588706995067156</v>
+        <v>-0.04687271584690073</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9396394858621043</v>
+        <v>0.5822237102611693</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02492220744607888</v>
+        <v>-0.8871575797939945</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7694473726270066</v>
+        <v>0.2453999359725516</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.936656857466761</v>
+        <v>-0.0297254962676404</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01084005916596009</v>
+        <v>0.06256707372701731</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.02014956406380209</v>
+        <v>-0.003924023952002484</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2022493377562765</v>
+        <v>0.6246806553363276</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.001966963800675301</v>
+        <v>1.643197966539036</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8077547927187344</v>
+        <v>0.3526075796123727</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9881722456764822</v>
+        <v>1.849361643797538</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5757324167523429</v>
+        <v>0.155521453949851</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.671873950934111</v>
+        <v>-1.380468505661244</v>
       </c>
       <c r="C23" t="n">
-        <v>0.202890020958751</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-0.7781776548195553</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.3709497965059735</v>
+        <v>0.1180050026852053</v>
       </c>
     </row>
   </sheetData>
@@ -1103,7 +1077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1135,10 +1109,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-17.5007035557325</v>
+        <v>-7.365463838283937</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9984685347916912</v>
+        <v>0.9031865029419638</v>
       </c>
     </row>
     <row r="3">
@@ -1148,10 +1122,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.82138014475877</v>
+        <v>8.041244883007854</v>
       </c>
       <c r="C3" t="n">
-        <v>0.998440472783973</v>
+        <v>0.8943156310513187</v>
       </c>
     </row>
     <row r="4">
@@ -1161,10 +1135,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.60176706230045</v>
+        <v>7.721606444616338</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9984596908335688</v>
+        <v>0.8984947381945284</v>
       </c>
     </row>
     <row r="5">
@@ -1174,257 +1148,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.4367674086063</v>
+        <v>6.738289027715934</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9985616384174609</v>
+        <v>0.9113630817693912</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.92164259510184</v>
+        <v>7.019647968530173</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9985192076263687</v>
+        <v>0.9076781974098322</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.72302172548895</v>
+        <v>7.225376059137253</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9985365886771462</v>
+        <v>0.904985707308267</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.74486486850338</v>
+        <v>0.1929388808293713</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9983596598857096</v>
+        <v>0.2494407458237761</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2467888972926679</v>
+        <v>0.0003186651269363056</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1679746641036468</v>
+        <v>7.831633006440373e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0002921270829393485</v>
+        <v>-0.006322570130536016</v>
       </c>
       <c r="C10" t="n">
-        <v>4.888835763409443e-05</v>
+        <v>0.3128857080669972</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.003054145920429067</v>
+        <v>-0.1002871657048991</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6280492888270063</v>
+        <v>0.5336406253331847</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1325673283785163</v>
+        <v>0.9220908764518485</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4174540493226946</v>
+        <v>0.000523812242117955</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.10319024585613</v>
+        <v>1.014031890239656</v>
       </c>
       <c r="C13" t="n">
-        <v>5.012766475671147e-05</v>
+        <v>0.003542625929005792</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.146951146501024</v>
+        <v>2.241741513363598e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001157044971481588</v>
+        <v>0.7554651836420865</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.222857983869945e-05</v>
+        <v>-1.703829207588745e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3890620299505962</v>
+        <v>0.6843770887643182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-5.831801398632789e-08</v>
+        <v>0.03467891635240954</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1706284020175359</v>
+        <v>0.6382391870426112</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06885578220744398</v>
+        <v>0.04187174460415489</v>
       </c>
       <c r="C17" t="n">
-        <v>0.346291243280398</v>
+        <v>0.6248463639241864</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02056106587553937</v>
+        <v>-1.514463747599573</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8115607744323667</v>
+        <v>0.04879092363726464</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.005170857682155</v>
+        <v>-0.01953754003507652</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2070309482148324</v>
+        <v>0.2146945813386174</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01442559098973946</v>
+        <v>-0.001152256069277971</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3642707123454787</v>
+        <v>0.886884407065511</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.002911930649933862</v>
+        <v>1.033754818169361</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7220987920888582</v>
+        <v>0.5555670826755683</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2883658156060236</v>
+        <v>0.7987230460714727</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8716424204973043</v>
+        <v>0.5326857491540027</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.124844712132977</v>
+        <v>-0.6967183079058098</v>
       </c>
       <c r="C23" t="n">
-        <v>0.388698147276189</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-1.192719476586596</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.1784064776210496</v>
+        <v>0.4191620511224539</v>
       </c>
     </row>
   </sheetData>
@@ -1438,7 +1399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1470,10 +1431,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-17.59621284952668</v>
+        <v>-5.100239013907093</v>
       </c>
       <c r="C2" t="n">
-        <v>0.998460171866184</v>
+        <v>0.8701870239752623</v>
       </c>
     </row>
     <row r="3">
@@ -1483,10 +1444,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.87376036208603</v>
+        <v>6.64959692015994</v>
       </c>
       <c r="C3" t="n">
-        <v>0.998435883947505</v>
+        <v>0.8310373554663089</v>
       </c>
     </row>
     <row r="4">
@@ -1496,10 +1457,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.79540609147025</v>
+        <v>6.466549758253191</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9984427406485983</v>
+        <v>0.835629147979373</v>
       </c>
     </row>
     <row r="5">
@@ -1509,257 +1470,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.46617510278836</v>
+        <v>5.13063811606899</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9985590602777589</v>
+        <v>0.8692366637614589</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.82293809627588</v>
+        <v>5.614784369266252</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9985278403144325</v>
+        <v>0.8570242251799167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.98030982337363</v>
+        <v>5.837477760175103</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9985140688760388</v>
+        <v>0.8514205741448246</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.18372133906365</v>
+        <v>0.1114735015781031</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9984087595940153</v>
+        <v>0.4989887145815838</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1324150772118188</v>
+        <v>0.0003367690903825295</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4277436376230358</v>
+        <v>3.088834640964073e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0002761075998528939</v>
+        <v>-0.004333028662002886</v>
       </c>
       <c r="C10" t="n">
-        <v>8.507256442582836e-05</v>
+        <v>0.4963732181219975</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.003153481535448301</v>
+        <v>-0.1511344333309204</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6148950546064769</v>
+        <v>0.3518280411628868</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.05929204336944856</v>
+        <v>0.828134360936673</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7120523483658558</v>
+        <v>0.002432658358435203</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9820008677757812</v>
+        <v>0.9237060450601757</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001705414540719198</v>
+        <v>0.010431854725894</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.117986683076094</v>
+        <v>3.436596917847595e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001202762384381193</v>
+        <v>0.6327665726383822</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.759846468104862e-05</v>
+        <v>-3.554338669403122e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8005591498886755</v>
+        <v>0.4055388012712979</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4.125363175805951e-08</v>
+        <v>0.0269165467591044</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3272110768494124</v>
+        <v>0.725949343769941</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.007157153116061708</v>
+        <v>-0.01204895941486322</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9225548130707227</v>
+        <v>0.8878452379271859</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.05924866200146737</v>
+        <v>-1.373770950609716</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4823804517671056</v>
+        <v>0.06989944374182179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.023092443224388</v>
+        <v>-0.02681335685058707</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1849606802155415</v>
+        <v>0.09418777223535273</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.009358787660725464</v>
+        <v>-0.0004978513288246661</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5607698038279141</v>
+        <v>0.9519315596498978</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.001441988979533836</v>
+        <v>0.9820805981223006</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8599711534167918</v>
+        <v>0.5773754820673676</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3388846341743751</v>
+        <v>1.229277535918159</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8480041958794744</v>
+        <v>0.3432683679217651</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.568801855482931</v>
+        <v>-1.087670114837188</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2297314697279802</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-1.007571533564204</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.2526009369420997</v>
+        <v>0.2136343400039346</v>
       </c>
     </row>
   </sheetData>
@@ -1773,7 +1721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1805,10 +1753,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-17.26740847453548</v>
+        <v>-16.36423235355515</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9985094547016624</v>
+        <v>0.9969308637013857</v>
       </c>
     </row>
     <row r="3">
@@ -1818,10 +1766,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.97446482675443</v>
+        <v>16.36566032120719</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9984484207223281</v>
+        <v>0.9969305956655016</v>
       </c>
     </row>
     <row r="4">
@@ -1831,10 +1779,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.70630103052853</v>
+        <v>16.09884500910218</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9984715689437845</v>
+        <v>0.9969806370475367</v>
       </c>
     </row>
     <row r="5">
@@ -1844,257 +1792,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.58680035047615</v>
+        <v>15.02634948996466</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9985682055985056</v>
+        <v>0.9971817843481956</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.85640980404928</v>
+        <v>15.39966349218807</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9985449325822952</v>
+        <v>0.9971117690176506</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.9740668561971</v>
+        <v>15.40218319868007</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9985347762819584</v>
+        <v>0.9971112964475707</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.2625917981017</v>
+        <v>0.2435455456810089</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9984235492637188</v>
+        <v>0.1462175672427685</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1923097456664407</v>
+        <v>0.0002222488105749181</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2530157601113868</v>
+        <v>0.00130447679232242</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0003123880289865665</v>
+        <v>-0.0007349874227448287</v>
       </c>
       <c r="C10" t="n">
-        <v>1.216391390626596e-05</v>
+        <v>0.9062053345621147</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.003692232949837087</v>
+        <v>-0.04898105358648634</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5622677316405702</v>
+        <v>0.7589559372844785</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.04674033651051199</v>
+        <v>0.9873299354639091</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7707660822311854</v>
+        <v>0.0001477877300095153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8272329016424564</v>
+        <v>0.9650964549737953</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002347749247170938</v>
+        <v>0.004996383133586841</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8439780059322393</v>
+        <v>4.462562581323397e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01709886571237602</v>
+        <v>0.5190359868470744</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.82853311924645e-05</v>
+        <v>-4.150111137801306e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5847162866158384</v>
+        <v>0.3196457587652091</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.417305505360129e-08</v>
+        <v>-0.000145583003938243</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5713113626642378</v>
+        <v>0.9983845959000441</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03501374622949913</v>
+        <v>0.0549299979945442</v>
       </c>
       <c r="C17" t="n">
-        <v>0.64405564260743</v>
+        <v>0.5100905854174802</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.03061052870904907</v>
+        <v>-1.377375491678578</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7210411078760783</v>
+        <v>0.07214691024333655</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.041449173816105</v>
+        <v>-0.008863074280224438</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1822861843418979</v>
+        <v>0.5698862312577141</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.02371363400921167</v>
+        <v>0.002239566103772609</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1425780691553251</v>
+        <v>0.7794027722355261</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0004552893592715335</v>
+        <v>-0.5232844070830267</v>
       </c>
       <c r="C21" t="n">
-        <v>0.955625253302801</v>
+        <v>0.7607092528174619</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.26542416248606</v>
+        <v>0.8793971744297179</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8794148379830597</v>
+        <v>0.4979162969768699</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.076187855820237</v>
+        <v>-0.6005169634688422</v>
       </c>
       <c r="C23" t="n">
-        <v>0.418444691851111</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-0.6602658001892852</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.4447671146612278</v>
+        <v>0.4799471214219709</v>
       </c>
     </row>
   </sheetData>
@@ -2108,7 +2043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2140,10 +2075,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-16.78883538340098</v>
+        <v>-15.54742918349946</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9985507820778307</v>
+        <v>0.9970786265707579</v>
       </c>
     </row>
     <row r="3">
@@ -2153,10 +2088,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.99803327431736</v>
+        <v>16.35903604344464</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9984464038126096</v>
+        <v>0.9969261255464913</v>
       </c>
     </row>
     <row r="4">
@@ -2166,10 +2101,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.78629788121758</v>
+        <v>16.14755462628959</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9984646808598905</v>
+        <v>0.9969658628692361</v>
       </c>
     </row>
     <row r="5">
@@ -2179,257 +2114,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.52122359587977</v>
+        <v>14.84958570753822</v>
       </c>
       <c r="C5" t="n">
-        <v>0.998573882371148</v>
+        <v>0.9972097511211295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.63606488156299</v>
+        <v>15.39506458252517</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9985639692434801</v>
+        <v>0.9971072556504236</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.90107321698268</v>
+        <v>15.52189888504122</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9985410936589952</v>
+        <v>0.9970834234975917</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.14801352690121</v>
+        <v>0.1231635895380056</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9983471372852529</v>
+        <v>0.4487106966074542</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1488713056402965</v>
+        <v>0.0003470957763478862</v>
       </c>
       <c r="C9" t="n">
-        <v>0.363352419328948</v>
+        <v>1.518012774911748e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0002361959761093758</v>
+        <v>-0.003012369266788678</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0007224728290855826</v>
+        <v>0.6386685735867732</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.002298983952185101</v>
+        <v>-0.137885874360007</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7181570455544681</v>
+        <v>0.3931643658008558</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.05968037003233292</v>
+        <v>0.9633030283197728</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7086758845754619</v>
+        <v>0.000286015211839355</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.036865352708073</v>
+        <v>0.9939309180474365</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001291305419215029</v>
+        <v>0.004998181097434777</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.040540661304347</v>
+        <v>-4.126489218038407e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003392021702649873</v>
+        <v>0.9541705681957924</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.020187539598615e-05</v>
+        <v>-4.795760822786535e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4025051284754615</v>
+        <v>0.2653033348195254</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.419155978837549e-08</v>
+        <v>-0.003479512005466725</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5682858958972876</v>
+        <v>0.9628636055066256</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03107311747592941</v>
+        <v>0.04317605517710647</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6736642489555152</v>
+        <v>0.6124822447900564</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01556945249320932</v>
+        <v>-1.508729459133296</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8529023946382326</v>
+        <v>0.05047651879110186</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.611025221734298</v>
+        <v>-0.01271329763980608</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03426092892167309</v>
+        <v>0.422132192371784</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.02138564990900692</v>
+        <v>-0.0009133903954554633</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1690532837253338</v>
+        <v>0.910630346079389</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.0006260193755876338</v>
+        <v>0.8873226463974984</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9377521553011445</v>
+        <v>0.6139123855313393</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.08914734739838674</v>
+        <v>1.508487395475186</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9592166748662625</v>
+        <v>0.2490914756083045</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3936675313703704</v>
+        <v>-1.065811109205875</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7615421913268817</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-0.6956303136135731</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.4164538931844387</v>
+        <v>0.2167995774828143</v>
       </c>
     </row>
   </sheetData>
@@ -2443,7 +2365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2475,10 +2397,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-16.89708399866203</v>
+        <v>-16.2252460014978</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9985414246521273</v>
+        <v>0.9969598868902712</v>
       </c>
     </row>
     <row r="3">
@@ -2488,10 +2410,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.03231490930172</v>
+        <v>16.60436346998846</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9984434303352887</v>
+        <v>0.9968888520309115</v>
       </c>
     </row>
     <row r="4">
@@ -2501,10 +2423,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.70193957604405</v>
+        <v>16.05538215143985</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9984719486705099</v>
+        <v>0.996991713788154</v>
       </c>
     </row>
     <row r="5">
@@ -2514,257 +2436,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.63609554947454</v>
+        <v>15.21190115078674</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9985639534224289</v>
+        <v>0.9971497555642987</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.97599963888129</v>
+        <v>15.69285124088784</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9985346125501566</v>
+        <v>0.9970596406470018</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.05592640413361</v>
+        <v>15.58215603179502</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9985277131889362</v>
+        <v>0.9970803814456747</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.33688507633228</v>
+        <v>0.2940373224536967</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9984171395365257</v>
+        <v>0.09161985630070688</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1996563282684971</v>
+        <v>0.0003075612173482111</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2275875638901594</v>
+        <v>1.631136516680267e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0002977019221408838</v>
+        <v>-0.01027732372509103</v>
       </c>
       <c r="C10" t="n">
-        <v>2.735374577458075e-05</v>
+        <v>0.1074287776796551</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.001558526744167204</v>
+        <v>-0.149580600109319</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8070330186981034</v>
+        <v>0.3507555379646262</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1437137567551578</v>
+        <v>1.036134934959634</v>
       </c>
       <c r="C12" t="n">
-        <v>0.371720401394952</v>
+        <v>0.0001296277069518572</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9621187778581513</v>
+        <v>1.28487848164396</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002595026234854197</v>
+        <v>0.0003092563790106915</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9493266861317948</v>
+        <v>3.807109566917656e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.006632532811028434</v>
+        <v>0.6026017691801671</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.862893163866829e-05</v>
+        <v>-3.812599746589271e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4928073991788495</v>
+        <v>0.3797041490401392</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-5.980170575305792e-08</v>
+        <v>-0.02539760842034467</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1600758127264907</v>
+        <v>0.7296931402842044</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03423486118335017</v>
+        <v>0.01433054814612466</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6392638304016346</v>
+        <v>0.8658298078320928</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01400163185237976</v>
+        <v>-1.628230466903987</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8692927214114636</v>
+        <v>0.03553319655316548</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.22764890152261</v>
+        <v>-0.01285629638672231</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1087071928842619</v>
+        <v>0.4219575066720624</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01775182094056944</v>
+        <v>0.004189943803037493</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2603518060938584</v>
+        <v>0.6085701152401817</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.00191036678526676</v>
+        <v>0.2073247157432855</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8142497134575373</v>
+        <v>0.9080328772465607</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6989165958337203</v>
+        <v>0.9572847022992551</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6895018055345798</v>
+        <v>0.4713876755785142</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.623047466341412</v>
+        <v>-0.8090528255670419</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2109847570926889</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-1.195156133063125</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.1686414401498738</v>
+        <v>0.3529944057491838</v>
       </c>
     </row>
   </sheetData>
@@ -2778,7 +2687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2810,10 +2719,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-17.3774425021661</v>
+        <v>-15.99391793084862</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9984999658001548</v>
+        <v>0.9969988185353317</v>
       </c>
     </row>
     <row r="3">
@@ -2823,10 +2732,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.01509432326903</v>
+        <v>16.41225711440124</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9984449232492681</v>
+        <v>0.9969203193710519</v>
       </c>
     </row>
     <row r="4">
@@ -2836,10 +2745,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.67290855611043</v>
+        <v>15.98916808984406</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9984744609514258</v>
+        <v>0.9969997096079107</v>
       </c>
     </row>
     <row r="5">
@@ -2849,257 +2758,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.5875266507047</v>
+        <v>15.14230147263991</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9985681518473319</v>
+        <v>0.9971586193551832</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.64302065459026</v>
+        <v>15.45899615679349</v>
       </c>
       <c r="C6" t="n">
-        <v>0.99856336156754</v>
+        <v>0.9970991933671537</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.91051768332384</v>
+        <v>15.35992057299234</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9985402710419363</v>
+        <v>0.9971177843477458</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.28129801797343</v>
+        <v>0.2419263346479651</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9984219443777883</v>
+        <v>0.1513776506092928</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1342623186880904</v>
+        <v>0.0003152268405289041</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4108362739340787</v>
+        <v>8.198123671995083e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0002495869861481862</v>
+        <v>-0.003363201136806933</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003766339557328286</v>
+        <v>0.5915213811783588</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.005782710238748043</v>
+        <v>-0.1498490545266472</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3558335558358903</v>
+        <v>0.3455791477434526</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03045521924799939</v>
+        <v>0.9609832529943051</v>
       </c>
       <c r="C12" t="n">
-        <v>0.848622680969677</v>
+        <v>0.0002153787097039261</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.064197142307879</v>
+        <v>0.9088047550058134</v>
       </c>
       <c r="C13" t="n">
-        <v>6.386616549796165e-05</v>
+        <v>0.008361558607205315</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.100828816095892</v>
+        <v>4.523031220084168e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001782997652197403</v>
+        <v>0.5264700053913884</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.800107023100148e-05</v>
+        <v>-5.167865895244339e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6933755125842338</v>
+        <v>0.2185531847471476</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.339361903285949e-08</v>
+        <v>0.03451217675013848</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4141462953226243</v>
+        <v>0.6351007565809162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03416963620687634</v>
+        <v>0.03588505115587676</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6337098663994991</v>
+        <v>0.6660646134540851</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.03966683332045094</v>
+        <v>-0.9685821116945118</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6392097152329463</v>
+        <v>0.2070050112548293</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.9537595527627427</v>
+        <v>-0.01573827304580489</v>
       </c>
       <c r="C19" t="n">
-        <v>0.209091736843947</v>
+        <v>0.3093926902818809</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01483110523416597</v>
+        <v>-0.001509226099254844</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3405446558394334</v>
+        <v>0.849275376614169</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0006290954789263427</v>
+        <v>0.3953314431616368</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9374162664252539</v>
+        <v>0.8206396684004479</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2680530576745613</v>
+        <v>1.656644398135456</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8771164805295627</v>
+        <v>0.1986070239478047</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1960415940206085</v>
+        <v>-0.7431244203996867</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8771774375820219</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-0.6137314855269324</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.4716708117736292</v>
+        <v>0.3837141726940035</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR/Leipzig.xlsx
+++ b/outputs/ML_Results/carown_LR/Leipzig.xlsx
@@ -7,14 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ8" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ9" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="summ6" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="summ1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ16" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ7" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ12" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ0" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ29" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ11" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ8" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ15" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-4.787361067799912</v>
+        <v>-8.667640492576631</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8037835476485639</v>
+        <v>0.9192314301452498</v>
       </c>
     </row>
     <row r="3">
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.275365075124087</v>
+        <v>8.624553871520963</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7834749200395874</v>
+        <v>0.9196205725401397</v>
       </c>
     </row>
     <row r="4">
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.09455417591495</v>
+        <v>8.549999661722552</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7907472062429075</v>
+        <v>0.920313711424405</v>
       </c>
     </row>
     <row r="5">
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.910236470509477</v>
+        <v>7.251984849904233</v>
       </c>
       <c r="C5" t="n">
-        <v>0.83860818067266</v>
+        <v>0.9323793019614945</v>
       </c>
     </row>
     <row r="6">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.390850480624568</v>
+        <v>7.82716687093128</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8190944992223765</v>
+        <v>0.9270304587921659</v>
       </c>
     </row>
     <row r="7">
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.330338348666514</v>
+        <v>7.748349642333957</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8215548760256791</v>
+        <v>0.9277634199437971</v>
       </c>
     </row>
     <row r="8">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1713864275858204</v>
+        <v>0.07448624101572816</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3157778851768155</v>
+        <v>0.6829905140150024</v>
       </c>
     </row>
     <row r="9">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002951708217967722</v>
+        <v>0.0005006128699658834</v>
       </c>
       <c r="C9" t="n">
-        <v>2.962437543550097e-05</v>
+        <v>1.2478831276745e-09</v>
       </c>
     </row>
     <row r="10">
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.001096438988165122</v>
+        <v>-0.000112251252320404</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8610689102364352</v>
+        <v>0.9865329002601403</v>
       </c>
     </row>
     <row r="11">
@@ -582,10 +582,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04127043514184754</v>
+        <v>-0.209084426221622</v>
       </c>
       <c r="C11" t="n">
-        <v>0.795880950564702</v>
+        <v>0.217827958795307</v>
       </c>
     </row>
     <row r="12">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.146490795214186</v>
+        <v>0.8871532324302828</v>
       </c>
       <c r="C12" t="n">
-        <v>1.879198262273397e-05</v>
+        <v>0.0007202828885497756</v>
       </c>
     </row>
     <row r="13">
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.249119032799762</v>
+        <v>0.5656807892116359</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0003504652108744395</v>
+        <v>0.1098588409218161</v>
       </c>
     </row>
     <row r="14">
@@ -621,10 +621,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.318859516727997e-05</v>
+        <v>3.277975427167221e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5463095122361045</v>
+        <v>0.6704279271264617</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.446345895132021e-08</v>
+        <v>-4.284026944961795e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.558170295991242</v>
+        <v>0.3037656621600028</v>
       </c>
     </row>
     <row r="16">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02979579740924603</v>
+        <v>0.04644854934758794</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6838862735303906</v>
+        <v>0.5436007665185572</v>
       </c>
     </row>
     <row r="17">
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02457298200299209</v>
+        <v>0.06070031195838691</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7741763241893412</v>
+        <v>0.4000874060635428</v>
       </c>
     </row>
     <row r="18">
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.9175716935047663</v>
+        <v>-1.443134246339116</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2389244129702328</v>
+        <v>0.06384502539633478</v>
       </c>
     </row>
     <row r="19">
@@ -686,23 +686,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02270906021492141</v>
+        <v>-0.01327380531587929</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1554210025058912</v>
+        <v>0.390540967185699</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.0005266455059756279</v>
+        <v>-9.345214288435997e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9480874749007479</v>
+        <v>0.9910636341869338</v>
       </c>
     </row>
     <row r="21">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3435494030095811</v>
+        <v>-0.09698463666021996</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8467048914991282</v>
+        <v>0.9546174620715561</v>
       </c>
     </row>
     <row r="22">
@@ -725,23 +725,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5906923398154202</v>
+        <v>0.1764380422928598</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6495497411508947</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.7681008198857032</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.3824533998788699</v>
+        <v>0.8825176160477869</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,10 +774,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-4.025602293522111</v>
+        <v>-9.769867674226406</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8684471972050387</v>
+        <v>0.9282485344286557</v>
       </c>
     </row>
     <row r="3">
@@ -800,10 +787,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.253326869789079</v>
+        <v>9.024388118829279</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7964930142893956</v>
+        <v>0.9337043238552221</v>
       </c>
     </row>
     <row r="4">
@@ -813,10 +800,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.970360746000503</v>
+        <v>8.948763092891499</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8055276938111025</v>
+        <v>0.934258970521282</v>
       </c>
     </row>
     <row r="5">
@@ -826,10 +813,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.70742625745494</v>
+        <v>7.843544231480085</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8460743133836578</v>
+        <v>0.9423629908913476</v>
       </c>
     </row>
     <row r="6">
@@ -839,10 +826,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.962516637777968</v>
+        <v>8.254871015405278</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8378457063261782</v>
+        <v>0.9393460991624089</v>
       </c>
     </row>
     <row r="7">
@@ -852,10 +839,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.241438941610213</v>
+        <v>8.11757121258281</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8288746949371186</v>
+        <v>0.9403531189715215</v>
       </c>
     </row>
     <row r="8">
@@ -865,10 +852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.107717161163108</v>
+        <v>0.1589659646229291</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5098591100962435</v>
+        <v>0.4117461643625363</v>
       </c>
     </row>
     <row r="9">
@@ -878,10 +865,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.000224922295409432</v>
+        <v>0.0005279488261707827</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001184562114444498</v>
+        <v>3.196636926445633e-10</v>
       </c>
     </row>
     <row r="10">
@@ -891,10 +878,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.003694757722815096</v>
+        <v>0.00326706950213376</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5548384765648848</v>
+        <v>0.6240553928652341</v>
       </c>
     </row>
     <row r="11">
@@ -904,10 +891,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02328128282494946</v>
+        <v>-0.2794597364511274</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8848379896192209</v>
+        <v>0.09863030985171425</v>
       </c>
     </row>
     <row r="12">
@@ -917,10 +904,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.059477215434472</v>
+        <v>0.9001320259607786</v>
       </c>
       <c r="C12" t="n">
-        <v>6.458524775608845e-05</v>
+        <v>0.0008964184550300532</v>
       </c>
     </row>
     <row r="13">
@@ -930,10 +917,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.069608137087771</v>
+        <v>0.5062583583805732</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002042415593807855</v>
+        <v>0.1539755003944179</v>
       </c>
     </row>
     <row r="14">
@@ -943,10 +930,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.873442424612587e-05</v>
+        <v>3.75100475737338e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7901922023791719</v>
+        <v>0.6249032926811969</v>
       </c>
     </row>
     <row r="15">
@@ -956,10 +943,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.232402423629497e-08</v>
+        <v>-6.804257180139164e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2131745767318419</v>
+        <v>0.1136081038788716</v>
       </c>
     </row>
     <row r="16">
@@ -969,10 +956,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02989355201200549</v>
+        <v>0.002637074850099311</v>
       </c>
       <c r="C16" t="n">
-        <v>0.680501654830965</v>
+        <v>0.9735751296151639</v>
       </c>
     </row>
     <row r="17">
@@ -982,10 +969,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.04687271584690073</v>
+        <v>0.03815071824883258</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5822237102611693</v>
+        <v>0.6001480925788714</v>
       </c>
     </row>
     <row r="18">
@@ -995,10 +982,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.8871575797939945</v>
+        <v>-1.437406551079556</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2453999359725516</v>
+        <v>0.07513066094991366</v>
       </c>
     </row>
     <row r="19">
@@ -1008,23 +995,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0297254962676404</v>
+        <v>-0.008821509664505643</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06256707372701731</v>
+        <v>0.5755987507740721</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.003924023952002484</v>
+        <v>0.005534234553993597</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6246806553363276</v>
+        <v>0.5166451246417897</v>
       </c>
     </row>
     <row r="21">
@@ -1034,10 +1021,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.643197966539036</v>
+        <v>-0.5259817783595451</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3526075796123727</v>
+        <v>0.7573349377379635</v>
       </c>
     </row>
     <row r="22">
@@ -1047,23 +1034,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.849361643797538</v>
+        <v>-0.2329210457019959</v>
       </c>
       <c r="C22" t="n">
-        <v>0.155521453949851</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.380468505661244</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1180050026852053</v>
+        <v>0.845993552711612</v>
       </c>
     </row>
   </sheetData>
@@ -1077,7 +1051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,10 +1083,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-7.365463838283937</v>
+        <v>-9.994081488790931</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9031865029419638</v>
+        <v>0.9286675954448897</v>
       </c>
     </row>
     <row r="3">
@@ -1122,10 +1096,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.041244883007854</v>
+        <v>9.222418599830181</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8943156310513187</v>
+        <v>0.9341566932173193</v>
       </c>
     </row>
     <row r="4">
@@ -1135,10 +1109,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.721606444616338</v>
+        <v>8.875501555854276</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8984947381945284</v>
+        <v>0.9366284737465156</v>
       </c>
     </row>
     <row r="5">
@@ -1148,10 +1122,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.738289027715934</v>
+        <v>7.832506434644039</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9113630817693912</v>
+        <v>0.9440623177011823</v>
       </c>
     </row>
     <row r="6">
@@ -1161,10 +1135,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.019647968530173</v>
+        <v>8.328079395679904</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9076781974098322</v>
+        <v>0.9405294243061073</v>
       </c>
     </row>
     <row r="7">
@@ -1174,10 +1148,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.225376059137253</v>
+        <v>8.24686013742064</v>
       </c>
       <c r="C7" t="n">
-        <v>0.904985707308267</v>
+        <v>0.9411084521630168</v>
       </c>
     </row>
     <row r="8">
@@ -1187,10 +1161,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1929388808293713</v>
+        <v>0.1408596817451319</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2494407458237761</v>
+        <v>0.4446301637032797</v>
       </c>
     </row>
     <row r="9">
@@ -1200,10 +1174,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003186651269363056</v>
+        <v>0.0005257993715256645</v>
       </c>
       <c r="C9" t="n">
-        <v>7.831633006440373e-06</v>
+        <v>2.126655060840212e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1213,10 +1187,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.006322570130536016</v>
+        <v>0.001800233983143337</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3128857080669972</v>
+        <v>0.7888589787019009</v>
       </c>
     </row>
     <row r="11">
@@ -1226,10 +1200,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1002871657048991</v>
+        <v>-0.248389891441205</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5336406253331847</v>
+        <v>0.1406883396875605</v>
       </c>
     </row>
     <row r="12">
@@ -1239,10 +1213,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9220908764518485</v>
+        <v>0.8341637609094852</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000523812242117955</v>
+        <v>0.001654143347077826</v>
       </c>
     </row>
     <row r="13">
@@ -1252,10 +1226,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.014031890239656</v>
+        <v>0.5284157848979303</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003542625929005792</v>
+        <v>0.139843309854982</v>
       </c>
     </row>
     <row r="14">
@@ -1265,10 +1239,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.241741513363598e-05</v>
+        <v>2.054364209004658e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7554651836420865</v>
+        <v>0.7847705230933</v>
       </c>
     </row>
     <row r="15">
@@ -1278,10 +1252,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.703829207588745e-08</v>
+        <v>-5.260784692512195e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6843770887643182</v>
+        <v>0.2043354872960444</v>
       </c>
     </row>
     <row r="16">
@@ -1291,10 +1265,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03467891635240954</v>
+        <v>0.02420958920773848</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6382391870426112</v>
+        <v>0.7557735373718164</v>
       </c>
     </row>
     <row r="17">
@@ -1304,10 +1278,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04187174460415489</v>
+        <v>0.06295515573730813</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6248463639241864</v>
+        <v>0.3824662960853454</v>
       </c>
     </row>
     <row r="18">
@@ -1317,10 +1291,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.514463747599573</v>
+        <v>-1.620703941061599</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04879092363726464</v>
+        <v>0.04377618369520796</v>
       </c>
     </row>
     <row r="19">
@@ -1330,23 +1304,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01953754003507652</v>
+        <v>-0.003648206826662971</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2146945813386174</v>
+        <v>0.8171434605518451</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.001152256069277971</v>
+        <v>0.004643228039699387</v>
       </c>
       <c r="C20" t="n">
-        <v>0.886884407065511</v>
+        <v>0.5859201624674439</v>
       </c>
     </row>
     <row r="21">
@@ -1356,10 +1330,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.033754818169361</v>
+        <v>-0.5969808570800417</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5555670826755683</v>
+        <v>0.7246198847233012</v>
       </c>
     </row>
     <row r="22">
@@ -1369,23 +1343,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7987230460714727</v>
+        <v>-0.03396216440566154</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5326857491540027</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.6967183079058098</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.4191620511224539</v>
+        <v>0.9769071673292292</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +1360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1431,10 +1392,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-5.100239013907093</v>
+        <v>-17.18643451924291</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8701870239752623</v>
+        <v>0.9967845421748112</v>
       </c>
     </row>
     <row r="3">
@@ -1444,10 +1405,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.64959692015994</v>
+        <v>16.46756414677581</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8310373554663089</v>
+        <v>0.9969190367784219</v>
       </c>
     </row>
     <row r="4">
@@ -1457,10 +1418,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.466549758253191</v>
+        <v>16.13548779527975</v>
       </c>
       <c r="C4" t="n">
-        <v>0.835629147979373</v>
+        <v>0.9969811655948547</v>
       </c>
     </row>
     <row r="5">
@@ -1470,10 +1431,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.13063811606899</v>
+        <v>15.19651577362885</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8692366637614589</v>
+        <v>0.9971568397733338</v>
       </c>
     </row>
     <row r="6">
@@ -1483,10 +1444,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.614784369266252</v>
+        <v>15.69783489494999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8570242251799167</v>
+        <v>0.9970630469411267</v>
       </c>
     </row>
     <row r="7">
@@ -1496,10 +1457,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.837477760175103</v>
+        <v>15.66773932693214</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8514205741448246</v>
+        <v>0.9970686775854205</v>
       </c>
     </row>
     <row r="8">
@@ -1509,10 +1470,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1114735015781031</v>
+        <v>0.1631746251571498</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4989887145815838</v>
+        <v>0.3921610765272256</v>
       </c>
     </row>
     <row r="9">
@@ -1522,10 +1483,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003367690903825295</v>
+        <v>0.0005202671213199165</v>
       </c>
       <c r="C9" t="n">
-        <v>3.088834640964073e-06</v>
+        <v>4.490535333107737e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1535,10 +1496,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.004333028662002886</v>
+        <v>-0.002653476875199205</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4963732181219975</v>
+        <v>0.6892660918094096</v>
       </c>
     </row>
     <row r="11">
@@ -1548,10 +1509,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1511344333309204</v>
+        <v>-0.2037846698922327</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3518280411628868</v>
+        <v>0.2207393086874576</v>
       </c>
     </row>
     <row r="12">
@@ -1561,10 +1522,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.828134360936673</v>
+        <v>1.026128493495343</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002432658358435203</v>
+        <v>0.0001624125901054495</v>
       </c>
     </row>
     <row r="13">
@@ -1574,10 +1535,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9237060450601757</v>
+        <v>0.8040420165685349</v>
       </c>
       <c r="C13" t="n">
-        <v>0.010431854725894</v>
+        <v>0.025329483310198</v>
       </c>
     </row>
     <row r="14">
@@ -1587,10 +1548,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.436596917847595e-05</v>
+        <v>-1.965893727047855e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6327665726383822</v>
+        <v>0.793803715874514</v>
       </c>
     </row>
     <row r="15">
@@ -1600,10 +1561,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.554338669403122e-08</v>
+        <v>-5.00648518645491e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4055388012712979</v>
+        <v>0.2336059187330189</v>
       </c>
     </row>
     <row r="16">
@@ -1613,10 +1574,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0269165467591044</v>
+        <v>0.03361683585834495</v>
       </c>
       <c r="C16" t="n">
-        <v>0.725949343769941</v>
+        <v>0.6597117993714061</v>
       </c>
     </row>
     <row r="17">
@@ -1626,10 +1587,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01204895941486322</v>
+        <v>0.05222343118724958</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8878452379271859</v>
+        <v>0.4643155436811636</v>
       </c>
     </row>
     <row r="18">
@@ -1639,10 +1600,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.373770950609716</v>
+        <v>-1.505078596129373</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06989944374182179</v>
+        <v>0.05732075658775766</v>
       </c>
     </row>
     <row r="19">
@@ -1652,23 +1613,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02681335685058707</v>
+        <v>-0.003801650222636999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09418777223535273</v>
+        <v>0.8078844594807708</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.0004978513288246661</v>
+        <v>0.002862757634296578</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9519315596498978</v>
+        <v>0.7306541416512421</v>
       </c>
     </row>
     <row r="21">
@@ -1678,10 +1639,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9820805981223006</v>
+        <v>-0.007226566531317716</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5773754820673676</v>
+        <v>0.9965668660806051</v>
       </c>
     </row>
     <row r="22">
@@ -1691,23 +1652,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.229277535918159</v>
+        <v>0.6991835790385156</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3432683679217651</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.087670114837188</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.2136343400039346</v>
+        <v>0.5659774924105132</v>
       </c>
     </row>
   </sheetData>
@@ -1721,7 +1669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,10 +1701,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-16.36423235355515</v>
+        <v>-18.42233457613683</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9969308637013857</v>
+        <v>0.9965626833232959</v>
       </c>
     </row>
     <row r="3">
@@ -1766,10 +1714,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.36566032120719</v>
+        <v>16.58427547252874</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9969305956655016</v>
+        <v>0.9969056341370145</v>
       </c>
     </row>
     <row r="4">
@@ -1779,10 +1727,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.09884500910218</v>
+        <v>16.14768855639919</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9969806370475367</v>
+        <v>0.9969870940297342</v>
       </c>
     </row>
     <row r="5">
@@ -1792,10 +1740,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.02634948996466</v>
+        <v>15.4049890597211</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9971817843481956</v>
+        <v>0.9971256695125892</v>
       </c>
     </row>
     <row r="6">
@@ -1805,10 +1753,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.39966349218807</v>
+        <v>15.89631054807174</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9971117690176506</v>
+        <v>0.9970339970076655</v>
       </c>
     </row>
     <row r="7">
@@ -1818,10 +1766,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.40218319868007</v>
+        <v>15.58067544067735</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9971112964475707</v>
+        <v>0.9970928893230503</v>
       </c>
     </row>
     <row r="8">
@@ -1831,10 +1779,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2435455456810089</v>
+        <v>0.1657236457075117</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1462175672427685</v>
+        <v>0.3777709167017973</v>
       </c>
     </row>
     <row r="9">
@@ -1844,10 +1792,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002222488105749181</v>
+        <v>0.0005602823818082047</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00130447679232242</v>
+        <v>2.222731926343317e-11</v>
       </c>
     </row>
     <row r="10">
@@ -1857,10 +1805,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0007349874227448287</v>
+        <v>-0.0006299933820381696</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9062053345621147</v>
+        <v>0.9235924865552978</v>
       </c>
     </row>
     <row r="11">
@@ -1870,10 +1818,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04898105358648634</v>
+        <v>-0.1984992896452278</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7589559372844785</v>
+        <v>0.2341271550444851</v>
       </c>
     </row>
     <row r="12">
@@ -1883,10 +1831,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9873299354639091</v>
+        <v>0.8522471053623361</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001477877300095153</v>
+        <v>0.001175524312447581</v>
       </c>
     </row>
     <row r="13">
@@ -1896,10 +1844,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9650964549737953</v>
+        <v>0.509770334223079</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004996383133586841</v>
+        <v>0.1453269511303173</v>
       </c>
     </row>
     <row r="14">
@@ -1909,10 +1857,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.462562581323397e-05</v>
+        <v>5.385927060877253e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5190359868470744</v>
+        <v>0.4675356504559816</v>
       </c>
     </row>
     <row r="15">
@@ -1922,10 +1870,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.150111137801306e-08</v>
+        <v>-5.784326189704585e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3196457587652091</v>
+        <v>0.165556501555242</v>
       </c>
     </row>
     <row r="16">
@@ -1935,10 +1883,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.000145583003938243</v>
+        <v>0.01615641011630555</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9983845959000441</v>
+        <v>0.8330925689460383</v>
       </c>
     </row>
     <row r="17">
@@ -1948,10 +1896,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0549299979945442</v>
+        <v>0.06774410940629302</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5100905854174802</v>
+        <v>0.3396956370780382</v>
       </c>
     </row>
     <row r="18">
@@ -1961,10 +1909,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.377375491678578</v>
+        <v>-1.974178701179776</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07214691024333655</v>
+        <v>0.0124053963066945</v>
       </c>
     </row>
     <row r="19">
@@ -1974,23 +1922,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.008863074280224438</v>
+        <v>0.007842805170885649</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5698862312577141</v>
+        <v>0.6137253083433682</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.002239566103772609</v>
+        <v>0.01051540337584043</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7794027722355261</v>
+        <v>0.2058974378310023</v>
       </c>
     </row>
     <row r="21">
@@ -2000,10 +1948,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.5232844070830267</v>
+        <v>-1.476146290491726</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7607092528174619</v>
+        <v>0.3752226739566661</v>
       </c>
     </row>
     <row r="22">
@@ -2013,23 +1961,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8793971744297179</v>
+        <v>0.1860903468013888</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4979162969768699</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.6005169634688422</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.4799471214219709</v>
+        <v>0.8752387111251057</v>
       </c>
     </row>
   </sheetData>
@@ -2043,7 +1978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2075,10 +2010,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-15.54742918349946</v>
+        <v>-17.65824207481882</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9970786265707579</v>
+        <v>0.9966973086253705</v>
       </c>
     </row>
     <row r="3">
@@ -2088,10 +2023,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.35903604344464</v>
+        <v>16.51780700563099</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9969261255464913</v>
+        <v>0.9969106074616082</v>
       </c>
     </row>
     <row r="4">
@@ -2101,10 +2036,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.14755462628959</v>
+        <v>16.05369992831522</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9969658628692361</v>
+        <v>0.9969974108868859</v>
       </c>
     </row>
     <row r="5">
@@ -2114,10 +2049,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.84958570753822</v>
+        <v>15.18236909851987</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9972097511211295</v>
+        <v>0.9971603787403006</v>
       </c>
     </row>
     <row r="6">
@@ -2127,10 +2062,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.39506458252517</v>
+        <v>15.63110519633368</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9971072556504236</v>
+        <v>0.997076450142787</v>
       </c>
     </row>
     <row r="7">
@@ -2140,10 +2075,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.52189888504122</v>
+        <v>15.38606543117511</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9970834234975917</v>
+        <v>0.997122280739418</v>
       </c>
     </row>
     <row r="8">
@@ -2153,10 +2088,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1231635895380056</v>
+        <v>0.1685098389558011</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4487106966074542</v>
+        <v>0.3721647984876435</v>
       </c>
     </row>
     <row r="9">
@@ -2166,10 +2101,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003470957763478862</v>
+        <v>0.0005056927070232201</v>
       </c>
       <c r="C9" t="n">
-        <v>1.518012774911748e-06</v>
+        <v>1.397986039983656e-09</v>
       </c>
     </row>
     <row r="10">
@@ -2179,10 +2114,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.003012369266788678</v>
+        <v>-0.0008278358185461496</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6386685735867732</v>
+        <v>0.902000784461831</v>
       </c>
     </row>
     <row r="11">
@@ -2192,10 +2127,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.137885874360007</v>
+        <v>-0.1519562253947801</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3931643658008558</v>
+        <v>0.3651520271236688</v>
       </c>
     </row>
     <row r="12">
@@ -2205,10 +2140,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9633030283197728</v>
+        <v>0.9722394524604233</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000286015211839355</v>
+        <v>0.0002981756522168882</v>
       </c>
     </row>
     <row r="13">
@@ -2218,10 +2153,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9939309180474365</v>
+        <v>0.6302962772957592</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004998181097434777</v>
+        <v>0.08068536406565432</v>
       </c>
     </row>
     <row r="14">
@@ -2231,10 +2166,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.126489218038407e-06</v>
+        <v>2.643772322771594e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9541705681957924</v>
+        <v>0.972582361475175</v>
       </c>
     </row>
     <row r="15">
@@ -2244,10 +2179,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.795760822786535e-08</v>
+        <v>-2.977477108110898e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2653033348195254</v>
+        <v>0.4747780162551747</v>
       </c>
     </row>
     <row r="16">
@@ -2257,10 +2192,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.003479512005466725</v>
+        <v>0.05029498283350508</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9628636055066256</v>
+        <v>0.5146409752200792</v>
       </c>
     </row>
     <row r="17">
@@ -2270,10 +2205,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04317605517710647</v>
+        <v>0.06716133365056084</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6124822447900564</v>
+        <v>0.3523023016319774</v>
       </c>
     </row>
     <row r="18">
@@ -2283,10 +2218,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.508729459133296</v>
+        <v>-1.082018931325142</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05047651879110186</v>
+        <v>0.1811144016875873</v>
       </c>
     </row>
     <row r="19">
@@ -2296,23 +2231,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01271329763980608</v>
+        <v>-0.008945358925367106</v>
       </c>
       <c r="C19" t="n">
-        <v>0.422132192371784</v>
+        <v>0.5681198571374699</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.0009133903954554633</v>
+        <v>0.005847994630036907</v>
       </c>
       <c r="C20" t="n">
-        <v>0.910630346079389</v>
+        <v>0.4896720178327995</v>
       </c>
     </row>
     <row r="21">
@@ -2322,10 +2257,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8873226463974984</v>
+        <v>0.05016346165098447</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6139123855313393</v>
+        <v>0.9765909344623389</v>
       </c>
     </row>
     <row r="22">
@@ -2335,23 +2270,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.508487395475186</v>
+        <v>0.5170750981000983</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2490914756083045</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.065811109205875</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.2167995774828143</v>
+        <v>0.6662127277097134</v>
       </c>
     </row>
   </sheetData>
@@ -2365,7 +2287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2397,10 +2319,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-16.2252460014978</v>
+        <v>-16.48717017338849</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9969598868902712</v>
+        <v>0.9969142106699391</v>
       </c>
     </row>
     <row r="3">
@@ -2410,10 +2332,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.60436346998846</v>
+        <v>16.60716751396515</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9968888520309115</v>
+        <v>0.9968917515429246</v>
       </c>
     </row>
     <row r="4">
@@ -2423,10 +2345,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.05538215143985</v>
+        <v>16.22262925393407</v>
       </c>
       <c r="C4" t="n">
-        <v>0.996991713788154</v>
+        <v>0.996963722562114</v>
       </c>
     </row>
     <row r="5">
@@ -2436,10 +2358,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.21190115078674</v>
+        <v>15.32210609745835</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9971497555642987</v>
+        <v>0.9971322665069388</v>
       </c>
     </row>
     <row r="6">
@@ -2449,10 +2371,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.69285124088784</v>
+        <v>15.90372062678468</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9970596406470018</v>
+        <v>0.9970234102004555</v>
       </c>
     </row>
     <row r="7">
@@ -2462,10 +2384,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.58215603179502</v>
+        <v>15.57589475369022</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9970803814456747</v>
+        <v>0.9970847668371657</v>
       </c>
     </row>
     <row r="8">
@@ -2475,10 +2397,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2940373224536967</v>
+        <v>0.2238597860123218</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09161985630070688</v>
+        <v>0.2242700640324002</v>
       </c>
     </row>
     <row r="9">
@@ -2488,10 +2410,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003075612173482111</v>
+        <v>0.0004976632598137608</v>
       </c>
       <c r="C9" t="n">
-        <v>1.631136516680267e-05</v>
+        <v>9.331017623648945e-10</v>
       </c>
     </row>
     <row r="10">
@@ -2501,10 +2423,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01027732372509103</v>
+        <v>-0.0005807308319150829</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1074287776796551</v>
+        <v>0.9295117445095775</v>
       </c>
     </row>
     <row r="11">
@@ -2514,10 +2436,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.149580600109319</v>
+        <v>-0.308618902403181</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3507555379646262</v>
+        <v>0.0649134944861666</v>
       </c>
     </row>
     <row r="12">
@@ -2527,10 +2449,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.036134934959634</v>
+        <v>0.6846705157071976</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001296277069518572</v>
+        <v>0.01081149266787156</v>
       </c>
     </row>
     <row r="13">
@@ -2540,10 +2462,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.28487848164396</v>
+        <v>0.3792939889473366</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0003092563790106915</v>
+        <v>0.2954834863281691</v>
       </c>
     </row>
     <row r="14">
@@ -2553,10 +2475,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.807109566917656e-05</v>
+        <v>1.186489672911163e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6026017691801671</v>
+        <v>0.8747964173028687</v>
       </c>
     </row>
     <row r="15">
@@ -2566,10 +2488,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.812599746589271e-08</v>
+        <v>-4.169885936394297e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3797041490401392</v>
+        <v>0.3050639942854994</v>
       </c>
     </row>
     <row r="16">
@@ -2579,10 +2501,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02539760842034467</v>
+        <v>0.1158204727535301</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7296931402842044</v>
+        <v>0.1263215049390735</v>
       </c>
     </row>
     <row r="17">
@@ -2592,10 +2514,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01433054814612466</v>
+        <v>-0.002182222765636586</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8658298078320928</v>
+        <v>0.9754542822522425</v>
       </c>
     </row>
     <row r="18">
@@ -2605,10 +2527,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.628230466903987</v>
+        <v>-1.023273104553185</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03553319655316548</v>
+        <v>0.1918543481412958</v>
       </c>
     </row>
     <row r="19">
@@ -2618,23 +2540,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01285629638672231</v>
+        <v>-0.02143673310670194</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4219575066720624</v>
+        <v>0.164721046836024</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.004189943803037493</v>
+        <v>-4.644761545787098e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6085701152401817</v>
+        <v>0.9955638187820393</v>
       </c>
     </row>
     <row r="21">
@@ -2644,10 +2566,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2073247157432855</v>
+        <v>0.7091193664329637</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9080328772465607</v>
+        <v>0.6731524005375179</v>
       </c>
     </row>
     <row r="22">
@@ -2657,23 +2579,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9572847022992551</v>
+        <v>0.3201999663732429</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4713876755785142</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.8090528255670419</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.3529944057491838</v>
+        <v>0.7844510448500381</v>
       </c>
     </row>
   </sheetData>
@@ -2687,7 +2596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2719,10 +2628,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-15.99391793084862</v>
+        <v>-16.48203812361285</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9969988185353317</v>
+        <v>0.9969124297088625</v>
       </c>
     </row>
     <row r="3">
@@ -2732,10 +2641,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.41225711440124</v>
+        <v>16.3618659707887</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9969203193710519</v>
+        <v>0.9969349412005839</v>
       </c>
     </row>
     <row r="4">
@@ -2745,10 +2654,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.98916808984406</v>
+        <v>16.13551096521664</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9969997096079107</v>
+        <v>0.996977343956767</v>
       </c>
     </row>
     <row r="5">
@@ -2758,10 +2667,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.14230147263991</v>
+        <v>15.13030894622564</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9971586193551832</v>
+        <v>0.9971656470521932</v>
       </c>
     </row>
     <row r="6">
@@ -2771,10 +2680,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.45899615679349</v>
+        <v>15.6647105451158</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9970991933671537</v>
+        <v>0.9970655383202336</v>
       </c>
     </row>
     <row r="7">
@@ -2784,10 +2693,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.35992057299234</v>
+        <v>15.56700072349742</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9971177843477458</v>
+        <v>0.9970838421693736</v>
       </c>
     </row>
     <row r="8">
@@ -2797,10 +2706,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2419263346479651</v>
+        <v>0.1244931027538196</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1513776506092928</v>
+        <v>0.5010142418561057</v>
       </c>
     </row>
     <row r="9">
@@ -2810,10 +2719,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003152268405289041</v>
+        <v>0.0005367255457855229</v>
       </c>
       <c r="C9" t="n">
-        <v>8.198123671995083e-06</v>
+        <v>6.524278496633428e-11</v>
       </c>
     </row>
     <row r="10">
@@ -2823,10 +2732,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.003363201136806933</v>
+        <v>-0.0025425995712995</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5915213811783588</v>
+        <v>0.7064896655194404</v>
       </c>
     </row>
     <row r="11">
@@ -2836,10 +2745,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1498490545266472</v>
+        <v>-0.2577192879940707</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3455791477434526</v>
+        <v>0.1264313429506561</v>
       </c>
     </row>
     <row r="12">
@@ -2849,10 +2758,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9609832529943051</v>
+        <v>0.9547905747636071</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002153787097039261</v>
+        <v>0.0003530372068509896</v>
       </c>
     </row>
     <row r="13">
@@ -2862,10 +2771,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9088047550058134</v>
+        <v>0.7775894265598333</v>
       </c>
       <c r="C13" t="n">
-        <v>0.008361558607205315</v>
+        <v>0.03076770735426877</v>
       </c>
     </row>
     <row r="14">
@@ -2875,10 +2784,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.523031220084168e-05</v>
+        <v>2.468477012390486e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5264700053913884</v>
+        <v>0.7503369571485408</v>
       </c>
     </row>
     <row r="15">
@@ -2888,10 +2797,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.167865895244339e-08</v>
+        <v>-4.923706434690982e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2185531847471476</v>
+        <v>0.246351672161535</v>
       </c>
     </row>
     <row r="16">
@@ -2901,10 +2810,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03451217675013848</v>
+        <v>0.01013061791383568</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6351007565809162</v>
+        <v>0.8958785974697507</v>
       </c>
     </row>
     <row r="17">
@@ -2914,10 +2823,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03588505115587676</v>
+        <v>0.04305639261898521</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6660646134540851</v>
+        <v>0.5532797911922172</v>
       </c>
     </row>
     <row r="18">
@@ -2927,10 +2836,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.9685821116945118</v>
+        <v>-1.713621465532659</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2070050112548293</v>
+        <v>0.02951045585588415</v>
       </c>
     </row>
     <row r="19">
@@ -2940,23 +2849,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01573827304580489</v>
+        <v>-0.01378288221141495</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3093926902818809</v>
+        <v>0.3784442208617125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.001509226099254844</v>
+        <v>0.001845474577763807</v>
       </c>
       <c r="C20" t="n">
-        <v>0.849275376614169</v>
+        <v>0.8274535053621033</v>
       </c>
     </row>
     <row r="21">
@@ -2966,10 +2875,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3953314431616368</v>
+        <v>-0.1542683241982233</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8206396684004479</v>
+        <v>0.9285877273061394</v>
       </c>
     </row>
     <row r="22">
@@ -2979,23 +2888,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.656644398135456</v>
+        <v>0.2777904836800494</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1986070239478047</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.7431244203996867</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.3837141726940035</v>
+        <v>0.8181879344259005</v>
       </c>
     </row>
   </sheetData>
